--- a/Типовые расчеты.xlsx
+++ b/Типовые расчеты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Курсы_SPSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAC409F-A0F6-4364-A757-2320E335CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56622A7-7BAE-43D5-ABEC-C7481CDCBB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="242">
   <si>
     <t>Исходные данные</t>
   </si>
@@ -763,6 +763,24 @@
   </si>
   <si>
     <t>Расчет среднего и стат. Погрешности среднего после объединения групп</t>
+  </si>
+  <si>
+    <t>U(x)=x^2</t>
+  </si>
+  <si>
+    <t>Среднее квадратичное</t>
+  </si>
+  <si>
+    <t>U(x)=ln(x)</t>
+  </si>
+  <si>
+    <t>Среднее геометрическое</t>
+  </si>
+  <si>
+    <t>U(x)=1/x</t>
+  </si>
+  <si>
+    <t>Среднее гармоническое</t>
   </si>
 </sst>
 </file>
@@ -909,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -968,6 +986,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3857,7 +3876,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{81F06379-E925-4CD7-AC0A-4B263F5C5B07}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4231,35 +4250,35 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="135" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="135" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="40" customWidth="1"/>
     <col min="2" max="2" width="65.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="61" style="5" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -4270,7 +4289,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="39">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -4279,7 +4298,7 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="39">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -4288,7 +4307,7 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="39">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -4299,7 +4318,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="39">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -4308,7 +4327,7 @@
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="39">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -4319,7 +4338,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="39">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -4330,7 +4349,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="39">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -4339,7 +4358,7 @@
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="39">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -9270,7 +9289,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9896,54 +9915,65 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="10.109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0.5</v>
       </c>
@@ -9986,8 +10016,20 @@
         <f>J2*H2</f>
         <v>0.18898365200624984</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="7">
+        <f>A2*A2*B2</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M2" s="7">
+        <f>B2*LN(A2)</f>
+        <v>-6.9314718055994533E-3</v>
+      </c>
+      <c r="N2" s="7">
+        <f>B2/A2</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -10030,8 +10072,20 @@
         <f t="shared" ref="K3:K15" si="7">J3*H3</f>
         <v>0.63112744506249929</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L15" si="8">A3*A3*B3</f>
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M15" si="9">B3*LN(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N15" si="10">B3/A3</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1.5</v>
       </c>
@@ -10039,7 +10093,7 @@
         <v>0.15</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:C15" si="8">B4+C3</f>
+        <f t="shared" ref="C4:C15" si="11">B4+C3</f>
         <v>0.26</v>
       </c>
       <c r="D4" s="7">
@@ -10074,8 +10128,20 @@
         <f t="shared" si="7"/>
         <v>0.20787880509374959</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="7">
+        <f t="shared" si="8"/>
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="9"/>
+        <v>6.0819766216224654E-2</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10083,7 +10149,7 @@
         <v>0.2</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.46</v>
       </c>
       <c r="D5" s="7">
@@ -10118,8 +10184,20 @@
         <f t="shared" si="7"/>
         <v>2.3423590124999925E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="7">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="9"/>
+        <v>0.13862943611198905</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2.5</v>
       </c>
@@ -10127,7 +10205,7 @@
         <v>0.2</v>
       </c>
       <c r="C6" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.66</v>
       </c>
       <c r="D6" s="7">
@@ -10162,8 +10240,20 @@
         <f t="shared" si="7"/>
         <v>1.0440124999999763E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="7">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="9"/>
+        <v>0.18325814637483104</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="10"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -10171,7 +10261,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.76</v>
       </c>
       <c r="D7" s="7">
@@ -10206,8 +10296,20 @@
         <f t="shared" si="7"/>
         <v>2.9661450625000137E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="7">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.10986122886681099</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3.5</v>
       </c>
@@ -10215,7 +10317,7 @@
         <v>0.08</v>
       </c>
       <c r="C8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.84</v>
       </c>
       <c r="D8" s="7">
@@ -10250,8 +10352,20 @@
         <f t="shared" si="7"/>
         <v>5.6075656050000124E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.98</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="9"/>
+        <v>0.10022103747962945</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="10"/>
+        <v>2.2857142857142857E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -10259,7 +10373,7 @@
         <v>0.06</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="D9" s="7">
@@ -10294,8 +10408,20 @@
         <f t="shared" si="7"/>
         <v>0.24053429703750034</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="7">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="9"/>
+        <v>8.3177661667193425E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="10"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4.5</v>
       </c>
@@ -10303,7 +10429,7 @@
         <v>0.03</v>
       </c>
       <c r="C10" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="D10" s="7">
@@ -10338,8 +10464,20 @@
         <f t="shared" si="7"/>
         <v>0.40345617601875039</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="7">
+        <f t="shared" si="8"/>
+        <v>0.60749999999999993</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="9"/>
+        <v>4.5122321903288222E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="10"/>
+        <v>6.6666666666666662E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -10347,7 +10485,7 @@
         <v>0.03</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
       <c r="D11" s="7">
@@ -10382,8 +10520,20 @@
         <f t="shared" si="7"/>
         <v>1.0204454535187506</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="7">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="9"/>
+        <v>4.8283137373023005E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>5.5</v>
       </c>
@@ -10391,7 +10541,7 @@
         <v>0.01</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.97</v>
       </c>
       <c r="D12" s="7">
@@ -10426,8 +10576,20 @@
         <f t="shared" si="7"/>
         <v>0.72202832700625041</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="7">
+        <f t="shared" si="8"/>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="9"/>
+        <v>1.7047480922384253E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="10"/>
+        <v>1.8181818181818182E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -10435,7 +10597,7 @@
         <v>0.01</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.98</v>
       </c>
       <c r="D13" s="7">
@@ -10470,8 +10632,20 @@
         <f t="shared" si="7"/>
         <v>1.3600749195062509</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="7">
+        <f t="shared" si="8"/>
+        <v>0.36</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="9"/>
+        <v>1.7917594692280551E-2</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666668E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6.5</v>
       </c>
@@ -10479,7 +10653,7 @@
         <v>0.01</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99</v>
       </c>
       <c r="D14" s="7">
@@ -10514,8 +10688,20 @@
         <f t="shared" si="7"/>
         <v>2.3492382620062515</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="7">
+        <f t="shared" si="8"/>
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="9"/>
+        <v>1.8718021769015915E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="10"/>
+        <v>1.5384615384615385E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -10523,7 +10709,7 @@
         <v>0.01</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D15" s="7">
@@ -10558,44 +10744,68 @@
         <f t="shared" si="7"/>
         <v>3.7994683545062529</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="7">
+        <f t="shared" si="8"/>
+        <v>0.49</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="9"/>
+        <v>1.9459101490553132E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714286E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9">
-        <f t="shared" ref="D16:K16" si="9">SUM(D2:D15)</f>
+        <f t="shared" ref="D16:N16" si="12">SUM(D2:D15)</f>
         <v>2.5849999999999995</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.2625000000000011</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>31.786249999999999</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>142.360625</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16.310000000000009</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5802750000000003</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.2576657500000024</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>11.005711523125006</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="12"/>
+        <v>8.2625000000000011</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="12"/>
+        <v>0.83558346306162434</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="12"/>
+        <v>0.49030902430902434</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -10695,6 +10905,33 @@
       <c r="B29" s="7">
         <f>B25/POWER(B23,2) - 3</f>
         <v>1.4070987906541728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="7">
+        <f>SQRT(L16)</f>
+        <v>2.8744564703609621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="7">
+        <f>EXP(M16)</f>
+        <v>2.3061592145373493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="7">
+        <f>1/N16</f>
+        <v>2.0395300727113184</v>
       </c>
     </row>
   </sheetData>
@@ -10715,7 +10952,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" style="34" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -10779,7 +11016,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>232</v>
       </c>
       <c r="B5" s="7">
